--- a/src/test/resources/TestData/SweetBalanceTestData.xlsx
+++ b/src/test/resources/TestData/SweetBalanceTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siris\eclipse-workspace\Team6_SweetCoders_SweetBalance\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurr\eclipse-workspace\SweetCoders_SweetBalance\Team6_SweetCoders_SweetBalance\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E48A4-91EF-4C6E-978D-FE9D80428484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2701ACB-D554-41F3-83E8-A34839E0975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" xr2:uid="{0E0B2D78-99B0-4BE5-9F2D-73C9D1F49B23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E0B2D78-99B0-4BE5-9F2D-73C9D1F49B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Sceanrio</t>
   </si>
@@ -60,18 +60,6 @@
     <t>Onboarding</t>
   </si>
   <si>
-    <t>team6.sweetcodersA@gmail.com</t>
-  </si>
-  <si>
-    <t>team6.sweetcodersB@gmail.com</t>
-  </si>
-  <si>
-    <t>team6.sweetcodersC@gmail.com</t>
-  </si>
-  <si>
-    <t>team6.sweetcodersD@gmail.com</t>
-  </si>
-  <si>
     <t>Team-Six-SweetCoders-A</t>
   </si>
   <si>
@@ -88,6 +76,27 @@
   </si>
   <si>
     <t>Team6SweetcodersC</t>
+  </si>
+  <si>
+    <t>team6.sweetcodersE@gmail.com</t>
+  </si>
+  <si>
+    <t>team6.sweetcodersF@gmail.com</t>
+  </si>
+  <si>
+    <t>team6.sweetcodersG@gmail.com</t>
+  </si>
+  <si>
+    <t>team6.sweetcodersH@gmail.com</t>
+  </si>
+  <si>
+    <t>Team6SweetcodersE</t>
+  </si>
+  <si>
+    <t>Team6SweetcodersF</t>
+  </si>
+  <si>
+    <t>Team6SweetcodersG</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,18 +468,18 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,29 +496,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -521,38 +530,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
